--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436197.8132806728</v>
+        <v>433759.340180926</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>220.3091963090871</v>
       </c>
       <c r="G2" t="n">
-        <v>89.45423727436466</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>139.3110404717341</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>275.8983618762248</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>148.4399041872981</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>169.4049510723431</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>43.30691955935752</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>199.744739694516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>62.87117804934167</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>214.209867043365</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11.94424739012647</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>111.2527235042582</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>36.43062059490504</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>42.20606459030872</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1658,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756242</v>
+        <v>140.2947128462227</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>200.2162519639185</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>140.7058473537592</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>53.68707741621073</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>103.7802572945516</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>248.0455461130018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>121.8000472740347</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855437</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855437</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6440892486864</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E2" t="n">
-        <v>567.8558366504421</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F2" t="n">
-        <v>156.8699318608346</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,46 +4413,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1505.059983974126</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1215.957117099769</v>
+        <v>1145.326377225984</v>
       </c>
       <c r="V4" t="n">
-        <v>1215.957117099769</v>
+        <v>890.6418890200973</v>
       </c>
       <c r="W4" t="n">
-        <v>926.5399470628088</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="X4" t="n">
-        <v>698.5503961647914</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.87852028569</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1767.87852028569</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3044.19904094198</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2713.136153598409</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.4618728343356</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>404.386759987989</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>256.4736664055958</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>256.4736664055958</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="X7" t="n">
-        <v>678.4618728343356</v>
+        <v>554.5033994003247</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.4618728343356</v>
+        <v>554.5033994003247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.63871203243</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D8" t="n">
-        <v>1266.37301342568</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="E8" t="n">
-        <v>880.5847608274355</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="F8" t="n">
-        <v>469.5988560378279</v>
+        <v>739.9550684218243</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>324.8826182668208</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,7 +4878,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.4305777370295</v>
+        <v>659.4316570185995</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>490.4954740906926</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>490.4954740906926</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>490.4954740906926</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>343.6055265927822</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9026899675012</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4999,13 +4999,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>478.4305777370295</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.4305777370295</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,46 +5042,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5188,61 +5188,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>849.3843576263188</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>680.4481746984119</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>530.3315352860761</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>382.418441703683</v>
       </c>
       <c r="F16" t="n">
-        <v>369.499740389278</v>
+        <v>235.5284942057726</v>
       </c>
       <c r="G16" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057726</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1842.268145910714</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1587.583657704827</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1298.166487667866</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1070.176936769849</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>849.3843576263188</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5537,25 +5537,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5966,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449245</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2392.733712452775</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2209.878878107679</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1990.277413130621</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>120.1346509896242</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>658.9255961109956</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2342.134540858491</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1061.366640084765</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>840.5740609412353</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="38">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="G2" t="n">
-        <v>321.4674883790888</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>168.2263229486967</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.5749408970325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>10.31347632938804</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>176.3785887617861</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23701,13 +23701,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>85.96822242532562</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.429902974302782e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>58.15585306139335</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>12.68816929391095</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8770068749577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>55.21102825632968</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>77.24602870709302</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>24.63391537253447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>965186.3956523299</v>
+        <v>965186.39565233</v>
       </c>
     </row>
     <row r="3">
@@ -26314,28 +26314,28 @@
         <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855344</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="D2" t="n">
-        <v>389994.8406855346</v>
-      </c>
       <c r="E2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527527</v>
@@ -26344,16 +26344,16 @@
         <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="O2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554111</v>
+        <v>50848.90313554114</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26436,7 +26436,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1132947.492561407</v>
+        <v>-1133133.885949946</v>
       </c>
       <c r="C6" t="n">
         <v>188657.1132759349</v>
       </c>
       <c r="D6" t="n">
-        <v>188657.1132759349</v>
+        <v>188657.1132759347</v>
       </c>
       <c r="E6" t="n">
-        <v>-57357.10885536481</v>
+        <v>-57391.84678079995</v>
       </c>
       <c r="F6" t="n">
-        <v>268055.352951991</v>
+        <v>268020.6150265549</v>
       </c>
       <c r="G6" t="n">
-        <v>268055.352951991</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="H6" t="n">
-        <v>268055.3529519911</v>
+        <v>268020.6150265552</v>
       </c>
       <c r="I6" t="n">
-        <v>268055.3529519909</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="J6" t="n">
-        <v>50524.15055471334</v>
+        <v>50489.41262927766</v>
       </c>
       <c r="K6" t="n">
-        <v>268055.3529519905</v>
+        <v>268020.6150265548</v>
       </c>
       <c r="L6" t="n">
-        <v>268055.3529519908</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="M6" t="n">
-        <v>183000.3250164789</v>
+        <v>182965.5870910432</v>
       </c>
       <c r="N6" t="n">
-        <v>268055.3529519906</v>
+        <v>268020.615026555</v>
       </c>
       <c r="O6" t="n">
-        <v>268055.3529519908</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="P6" t="n">
-        <v>268055.3529519906</v>
+        <v>268020.6150265551</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>181.0146457687163</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.6629977590211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80.23790880443511</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>206.2431374333848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>81.59022088655888</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>122.7188886996707</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>25.96491569452112</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>348.0505476041118</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>80.39789734395544</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>132.8107675241943</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>114.456931884779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551096</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>659.9976957396705</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>528.6559836563372</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
